--- a/Team-Data/2007-08/1-9-2007-08.xlsx
+++ b/Team-Data/2007-08/1-9-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,94 +733,94 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
         <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.484</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="J2" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="K2" t="n">
         <v>0.443</v>
       </c>
       <c r="L2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.309</v>
+        <v>0.312</v>
       </c>
       <c r="O2" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="P2" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.771</v>
+        <v>0.773</v>
       </c>
       <c r="R2" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S2" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T2" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U2" t="n">
         <v>20.1</v>
       </c>
       <c r="V2" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>5.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="AD2" t="n">
         <v>29</v>
       </c>
       <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG2" t="n">
         <v>18</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>4</v>
@@ -780,16 +847,16 @@
         <v>2</v>
       </c>
       <c r="AP2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>12</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT2" t="n">
         <v>21</v>
@@ -798,7 +865,7 @@
         <v>23</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
@@ -810,10 +877,10 @@
         <v>18</v>
       </c>
       <c r="AZ2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
         <v>29</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.879</v>
+        <v>0.906</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J3" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.471</v>
+        <v>0.473</v>
       </c>
       <c r="L3" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M3" t="n">
         <v>19.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.38</v>
+        <v>0.386</v>
       </c>
       <c r="O3" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P3" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
         <v>9.5</v>
       </c>
       <c r="S3" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T3" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U3" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V3" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W3" t="n">
         <v>9.1</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.7</v>
+        <v>100.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -950,13 +1017,13 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM3" t="n">
         <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
         <v>6</v>
@@ -974,10 +1041,10 @@
         <v>7</v>
       </c>
       <c r="AT3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>13</v>
@@ -995,10 +1062,10 @@
         <v>16</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -1030,106 +1097,106 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>0.382</v>
+        <v>0.364</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="J4" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L4" t="n">
         <v>6.2</v>
       </c>
       <c r="M4" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O4" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="P4" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.698</v>
+        <v>0.697</v>
       </c>
       <c r="R4" t="n">
         <v>10.8</v>
       </c>
       <c r="S4" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T4" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W4" t="n">
         <v>7.6</v>
       </c>
       <c r="X4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
         <v>5.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB4" t="n">
         <v>94.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.2</v>
+        <v>-4.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
         <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1141,13 +1208,13 @@
         <v>7</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>18</v>
@@ -1159,10 +1226,10 @@
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
         <v>14</v>
@@ -1171,7 +1238,7 @@
         <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
@@ -1183,7 +1250,7 @@
         <v>23</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1299,7 +1366,7 @@
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>1</v>
@@ -1317,7 +1384,7 @@
         <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
         <v>27</v>
@@ -1326,7 +1393,7 @@
         <v>24</v>
       </c>
       <c r="AP5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ5" t="n">
         <v>14</v>
@@ -1338,10 +1405,10 @@
         <v>20</v>
       </c>
       <c r="AT5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
         <v>10</v>
@@ -1350,13 +1417,13 @@
         <v>16</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -1394,94 +1461,94 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
         <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.514</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J6" t="n">
-        <v>82.40000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.429</v>
+        <v>0.431</v>
       </c>
       <c r="L6" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M6" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="O6" t="n">
         <v>18.2</v>
       </c>
-      <c r="N6" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="O6" t="n">
-        <v>18.1</v>
-      </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.718</v>
+        <v>0.719</v>
       </c>
       <c r="R6" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U6" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="V6" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W6" t="n">
         <v>7.7</v>
       </c>
       <c r="X6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y6" t="n">
         <v>4.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.3</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="n">
-        <v>95.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>-2.7</v>
+        <v>-2.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
         <v>14</v>
       </c>
-      <c r="AF6" t="n">
-        <v>18</v>
-      </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>2</v>
@@ -1499,19 +1566,19 @@
         <v>14</v>
       </c>
       <c r="AM6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO6" t="n">
         <v>19</v>
       </c>
-      <c r="AO6" t="n">
-        <v>20</v>
-      </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
@@ -1529,7 +1596,7 @@
         <v>12</v>
       </c>
       <c r="AW6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX6" t="n">
         <v>20</v>
@@ -1538,13 +1605,13 @@
         <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA6" t="n">
         <v>26</v>
       </c>
       <c r="BB6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC6" t="n">
         <v>19</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -1576,64 +1643,64 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.676</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>77.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.47</v>
+        <v>0.467</v>
       </c>
       <c r="L7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.361</v>
+        <v>0.354</v>
       </c>
       <c r="O7" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="P7" t="n">
-        <v>26.7</v>
+        <v>27.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.824</v>
+        <v>0.825</v>
       </c>
       <c r="R7" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S7" t="n">
         <v>31.6</v>
       </c>
       <c r="T7" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U7" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V7" t="n">
         <v>12.9</v>
       </c>
       <c r="W7" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X7" t="n">
         <v>5.3</v>
@@ -1642,16 +1709,16 @@
         <v>3.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AB7" t="n">
         <v>101.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AD7" t="n">
         <v>9</v>
@@ -1672,10 +1739,10 @@
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL7" t="n">
         <v>17</v>
@@ -1684,19 +1751,19 @@
         <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
         <v>4</v>
       </c>
       <c r="AP7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS7" t="n">
         <v>11</v>
@@ -1705,22 +1772,22 @@
         <v>17</v>
       </c>
       <c r="AU7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
       </c>
       <c r="AW7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -1836,19 +1903,19 @@
         <v>3.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1863,10 +1930,10 @@
         <v>16</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1887,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>27</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -1940,61 +2007,61 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="n">
         <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.743</v>
+        <v>0.765</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J9" t="n">
-        <v>79.59999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.466</v>
+        <v>0.468</v>
       </c>
       <c r="L9" t="n">
         <v>5.9</v>
       </c>
       <c r="M9" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="N9" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O9" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P9" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R9" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S9" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="T9" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U9" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="V9" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
@@ -2006,16 +2073,16 @@
         <v>3.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="AD9" t="n">
         <v>9</v>
@@ -2030,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>7</v>
@@ -2039,37 +2106,37 @@
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN9" t="n">
         <v>6</v>
       </c>
       <c r="AO9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>12</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>16</v>
       </c>
       <c r="AS9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -2122,85 +2189,85 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>0.556</v>
+        <v>0.571</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="J10" t="n">
         <v>88.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L10" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O10" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P10" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R10" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S10" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T10" t="n">
         <v>42.5</v>
       </c>
       <c r="U10" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="V10" t="n">
         <v>13.8</v>
       </c>
       <c r="W10" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y10" t="n">
         <v>5.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.2</v>
+        <v>108.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2230,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ10" t="n">
         <v>20</v>
@@ -2245,7 +2312,7 @@
         <v>6</v>
       </c>
       <c r="AS10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2260,22 +2327,22 @@
         <v>5</v>
       </c>
       <c r="AX10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY10" t="n">
         <v>23</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>22</v>
       </c>
       <c r="AZ10" t="n">
         <v>26</v>
       </c>
       <c r="BA10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -2304,46 +2371,46 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>0.528</v>
+        <v>0.514</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J11" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L11" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O11" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P11" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.735</v>
+        <v>0.737</v>
       </c>
       <c r="R11" t="n">
         <v>12.4</v>
@@ -2352,61 +2419,61 @@
         <v>31.7</v>
       </c>
       <c r="T11" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U11" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V11" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
         <v>5.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA11" t="n">
         <v>20.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.2</v>
+        <v>95</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
         <v>8</v>
@@ -2418,10 +2485,10 @@
         <v>27</v>
       </c>
       <c r="AP11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR11" t="n">
         <v>7</v>
@@ -2430,31 +2497,31 @@
         <v>10</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>16</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX11" t="n">
         <v>3</v>
       </c>
       <c r="AY11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ11" t="n">
         <v>9</v>
       </c>
       <c r="BA11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>0.432</v>
+        <v>0.444</v>
       </c>
       <c r="H12" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>38.4</v>
+        <v>38.1</v>
       </c>
       <c r="J12" t="n">
-        <v>87.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.441</v>
@@ -2513,34 +2580,34 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.357</v>
+        <v>0.361</v>
       </c>
       <c r="O12" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R12" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S12" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="T12" t="n">
-        <v>45.1</v>
+        <v>44.8</v>
       </c>
       <c r="U12" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V12" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W12" t="n">
         <v>7.6</v>
@@ -2549,19 +2616,19 @@
         <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.9</v>
+        <v>102.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2570,13 +2637,13 @@
         <v>18</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG12" t="n">
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>21</v>
@@ -2606,13 +2673,13 @@
         <v>19</v>
       </c>
       <c r="AR12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS12" t="n">
         <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2621,7 +2688,7 @@
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
         <v>5</v>
@@ -2630,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>14</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -2668,58 +2735,58 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.313</v>
+        <v>0.323</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
       </c>
       <c r="I13" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="J13" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.422</v>
+        <v>0.42</v>
       </c>
       <c r="L13" t="n">
         <v>4.7</v>
       </c>
       <c r="M13" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.332</v>
+        <v>0.335</v>
       </c>
       <c r="O13" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="P13" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.776</v>
+        <v>0.772</v>
       </c>
       <c r="R13" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S13" t="n">
         <v>32.3</v>
       </c>
       <c r="T13" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U13" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V13" t="n">
         <v>14.7</v>
@@ -2731,16 +2798,16 @@
         <v>5.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>92.59999999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>-5.3</v>
@@ -2752,19 +2819,19 @@
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2776,16 +2843,16 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR13" t="n">
         <v>25</v>
@@ -2806,7 +2873,7 @@
         <v>23</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
         <v>25</v>
@@ -2815,7 +2882,7 @@
         <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB13" t="n">
         <v>30</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -2850,49 +2917,49 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="n">
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.676</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
         <v>82</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O14" t="n">
-        <v>22.1</v>
+        <v>22.5</v>
       </c>
       <c r="P14" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R14" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S14" t="n">
         <v>34.2</v>
@@ -2901,46 +2968,46 @@
         <v>44.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V14" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X14" t="n">
         <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AB14" t="n">
         <v>107.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2958,13 +3025,13 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
         <v>11</v>
@@ -2976,28 +3043,28 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW14" t="n">
         <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3122,13 +3189,13 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK15" t="n">
         <v>11</v>
@@ -3140,10 +3207,10 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
@@ -3167,25 +3234,25 @@
         <v>26</v>
       </c>
       <c r="AW15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX15" t="n">
         <v>7</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
         <v>5</v>
       </c>
       <c r="BA15" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB15" t="n">
         <v>10</v>
       </c>
-      <c r="BB15" t="n">
-        <v>9</v>
-      </c>
       <c r="BC15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" t="n">
-        <v>0.222</v>
+        <v>0.229</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J16" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L16" t="n">
         <v>4.6</v>
@@ -3244,28 +3311,28 @@
         <v>13.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.341</v>
+        <v>0.344</v>
       </c>
       <c r="O16" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P16" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.699</v>
+        <v>0.696</v>
       </c>
       <c r="R16" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S16" t="n">
         <v>29.4</v>
       </c>
       <c r="T16" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="U16" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V16" t="n">
         <v>15.2</v>
@@ -3277,13 +3344,13 @@
         <v>5.1</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB16" t="n">
         <v>93.90000000000001</v>
@@ -3292,7 +3359,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3322,22 +3389,22 @@
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3346,7 +3413,7 @@
         <v>26</v>
       </c>
       <c r="AV16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW16" t="n">
         <v>15</v>
@@ -3358,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -3396,61 +3463,61 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
         <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>0.429</v>
+        <v>0.412</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J17" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K17" t="n">
         <v>0.449</v>
       </c>
       <c r="L17" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M17" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="O17" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="P17" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R17" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S17" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T17" t="n">
         <v>40.8</v>
       </c>
       <c r="U17" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3462,16 +3529,16 @@
         <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-5.5</v>
+        <v>-5.9</v>
       </c>
       <c r="AD17" t="n">
         <v>9</v>
@@ -3489,13 +3556,13 @@
         <v>5</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3507,22 +3574,22 @@
         <v>25</v>
       </c>
       <c r="AO17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>8</v>
       </c>
       <c r="AS17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
         <v>16</v>
@@ -3686,7 +3753,7 @@
         <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3710,7 +3777,7 @@
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -3760,94 +3827,94 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
         <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="J19" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M19" t="n">
         <v>17</v>
       </c>
       <c r="N19" t="n">
-        <v>0.325</v>
+        <v>0.32</v>
       </c>
       <c r="O19" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P19" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R19" t="n">
         <v>11.1</v>
       </c>
       <c r="S19" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T19" t="n">
         <v>41.3</v>
       </c>
       <c r="U19" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V19" t="n">
         <v>15.9</v>
       </c>
       <c r="W19" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
       <c r="AD19" t="n">
         <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
         <v>5</v>
@@ -3865,16 +3932,16 @@
         <v>22</v>
       </c>
       <c r="AM19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
@@ -3889,10 +3956,10 @@
         <v>22</v>
       </c>
       <c r="AU19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>21</v>
@@ -3907,13 +3974,13 @@
         <v>27</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
         <v>27</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -3942,106 +4009,106 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>0.657</v>
+        <v>0.676</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="J20" t="n">
         <v>83.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.445</v>
+        <v>0.447</v>
       </c>
       <c r="L20" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="M20" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.356</v>
+        <v>0.361</v>
       </c>
       <c r="O20" t="n">
         <v>15.9</v>
       </c>
       <c r="P20" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="T20" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U20" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="V20" t="n">
         <v>12.7</v>
       </c>
       <c r="W20" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="X20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y20" t="n">
         <v>4.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>97.2</v>
+        <v>97.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="AD20" t="n">
         <v>9</v>
       </c>
       <c r="AE20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF20" t="n">
         <v>5</v>
       </c>
-      <c r="AF20" t="n">
-        <v>7</v>
-      </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
         <v>5</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AJ20" t="n">
         <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4050,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO20" t="n">
         <v>28</v>
@@ -4059,43 +4126,43 @@
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
         <v>15</v>
       </c>
       <c r="AS20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT20" t="n">
         <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA20" t="n">
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" t="n">
-        <v>0.265</v>
+        <v>0.273</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4145,7 +4212,7 @@
         <v>80.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L21" t="n">
         <v>5.6</v>
@@ -4154,16 +4221,16 @@
         <v>16.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.336</v>
+        <v>0.333</v>
       </c>
       <c r="O21" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P21" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.707</v>
+        <v>0.708</v>
       </c>
       <c r="R21" t="n">
         <v>13.1</v>
@@ -4184,40 +4251,40 @@
         <v>6.6</v>
       </c>
       <c r="X21" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB21" t="n">
         <v>94.09999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7.9</v>
+        <v>-7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
       </c>
       <c r="AF21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
         <v>27</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
         <v>15</v>
@@ -4229,16 +4296,16 @@
         <v>21</v>
       </c>
       <c r="AM21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN21" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ21" t="n">
         <v>28</v>
@@ -4247,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="AS21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT21" t="n">
         <v>12</v>
@@ -4256,22 +4323,22 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW21" t="n">
         <v>24</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>25</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ21" t="n">
         <v>17</v>
       </c>
       <c r="BA21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -4306,49 +4373,49 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" t="n">
         <v>14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.622</v>
+        <v>0.611</v>
       </c>
       <c r="H22" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I22" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J22" t="n">
         <v>79.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L22" t="n">
         <v>8.9</v>
       </c>
       <c r="M22" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O22" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P22" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.72</v>
+        <v>0.718</v>
       </c>
       <c r="R22" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S22" t="n">
         <v>33.3</v>
@@ -4357,7 +4424,7 @@
         <v>43</v>
       </c>
       <c r="U22" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V22" t="n">
         <v>15.3</v>
@@ -4366,40 +4433,40 @@
         <v>6.5</v>
       </c>
       <c r="X22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA22" t="n">
         <v>24.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.6</v>
+        <v>103.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF22" t="n">
         <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>3</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
         <v>22</v>
@@ -4417,13 +4484,13 @@
         <v>13</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR22" t="n">
         <v>27</v>
@@ -4435,7 +4502,7 @@
         <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AV22" t="n">
         <v>16</v>
@@ -4450,7 +4517,7 @@
         <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>0.389</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
@@ -4506,7 +4573,7 @@
         <v>35.9</v>
       </c>
       <c r="J23" t="n">
-        <v>80.5</v>
+        <v>80.3</v>
       </c>
       <c r="K23" t="n">
         <v>0.446</v>
@@ -4515,25 +4582,25 @@
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.318</v>
+        <v>0.323</v>
       </c>
       <c r="O23" t="n">
         <v>17.5</v>
       </c>
       <c r="P23" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.716</v>
+        <v>0.714</v>
       </c>
       <c r="R23" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S23" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="T23" t="n">
         <v>42.1</v>
@@ -4545,49 +4612,49 @@
         <v>15.9</v>
       </c>
       <c r="W23" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB23" t="n">
         <v>93.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG23" t="n">
         <v>21</v>
       </c>
-      <c r="AF23" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>23</v>
-      </c>
       <c r="AH23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK23" t="n">
         <v>20</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -4596,10 +4663,10 @@
         <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP23" t="n">
         <v>18</v>
@@ -4611,13 +4678,13 @@
         <v>4</v>
       </c>
       <c r="AS23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT23" t="n">
         <v>14</v>
       </c>
       <c r="AU23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV23" t="n">
         <v>23</v>
@@ -4626,16 +4693,16 @@
         <v>7</v>
       </c>
       <c r="AX23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY23" t="n">
         <v>19</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -4670,58 +4737,58 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" t="n">
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>0.714</v>
+        <v>0.706</v>
       </c>
       <c r="H24" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="I24" t="n">
         <v>42.1</v>
       </c>
       <c r="J24" t="n">
-        <v>85.5</v>
+        <v>85.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.492</v>
+        <v>0.493</v>
       </c>
       <c r="L24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="M24" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.383</v>
+        <v>0.381</v>
       </c>
       <c r="O24" t="n">
-        <v>17.8</v>
+        <v>17.3</v>
       </c>
       <c r="P24" t="n">
-        <v>22.9</v>
+        <v>22.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R24" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S24" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="V24" t="n">
         <v>13.4</v>
@@ -4730,7 +4797,7 @@
         <v>7.2</v>
       </c>
       <c r="X24" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y24" t="n">
         <v>3.8</v>
@@ -4739,10 +4806,10 @@
         <v>19.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.3</v>
+        <v>19.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.7</v>
+        <v>110.1</v>
       </c>
       <c r="AC24" t="n">
         <v>5.9</v>
@@ -4760,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4778,16 +4845,16 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
@@ -4814,10 +4881,10 @@
         <v>4</v>
       </c>
       <c r="AZ24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA24" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BB24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -4852,82 +4919,82 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" t="n">
         <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>0.629</v>
+        <v>0.618</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J25" t="n">
-        <v>77.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M25" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="N25" t="n">
-        <v>0.389</v>
+        <v>0.386</v>
       </c>
       <c r="O25" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P25" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.764</v>
+        <v>0.761</v>
       </c>
       <c r="R25" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S25" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="T25" t="n">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="U25" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="V25" t="n">
         <v>13.9</v>
       </c>
       <c r="W25" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="X25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y25" t="n">
         <v>3.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AD25" t="n">
         <v>9</v>
@@ -4945,22 +5012,22 @@
         <v>5</v>
       </c>
       <c r="AI25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM25" t="n">
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
         <v>18</v>
@@ -4969,19 +5036,19 @@
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV25" t="n">
         <v>8</v>
@@ -4999,13 +5066,13 @@
         <v>6</v>
       </c>
       <c r="BA25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-3</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
         <v>22</v>
@@ -5121,7 +5188,7 @@
         <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH26" t="n">
         <v>12</v>
@@ -5154,10 +5221,10 @@
         <v>5</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5181,10 +5248,10 @@
         <v>24</v>
       </c>
       <c r="BA26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>6.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
@@ -5309,10 +5376,10 @@
         <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK27" t="n">
         <v>10</v>
@@ -5324,19 +5391,19 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ27" t="n">
         <v>15</v>
       </c>
       <c r="AR27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS27" t="n">
         <v>12</v>
@@ -5345,13 +5412,13 @@
         <v>18</v>
       </c>
       <c r="AU27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV27" t="n">
         <v>3</v>
       </c>
       <c r="AW27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" t="n">
-        <v>0.257</v>
+        <v>0.265</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J28" t="n">
-        <v>85</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L28" t="n">
         <v>4.7</v>
@@ -5428,52 +5495,52 @@
         <v>13.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.351</v>
+        <v>0.355</v>
       </c>
       <c r="O28" t="n">
         <v>18.1</v>
       </c>
       <c r="P28" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
         <v>45.5</v>
       </c>
       <c r="U28" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V28" t="n">
         <v>16.8</v>
       </c>
       <c r="W28" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7.1</v>
+        <v>-7</v>
       </c>
       <c r="AD28" t="n">
         <v>9</v>
@@ -5488,7 +5555,7 @@
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
         <v>7</v>
@@ -5506,10 +5573,10 @@
         <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
@@ -5518,7 +5585,7 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5536,13 +5603,13 @@
         <v>22</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY28" t="n">
         <v>20</v>
       </c>
       <c r="AZ28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA28" t="n">
         <v>21</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -5580,109 +5647,109 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" t="n">
         <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>48.1</v>
       </c>
       <c r="I29" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J29" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.45</v>
+        <v>0.447</v>
       </c>
       <c r="L29" t="n">
         <v>7.3</v>
       </c>
       <c r="M29" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.409</v>
+        <v>0.408</v>
       </c>
       <c r="O29" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P29" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="R29" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S29" t="n">
         <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U29" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V29" t="n">
         <v>11.7</v>
       </c>
       <c r="W29" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z29" t="n">
         <v>20.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AD29" t="n">
         <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
         <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
         <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ29" t="n">
         <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5709,22 +5776,22 @@
         <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA29" t="n">
         <v>30</v>
@@ -5733,7 +5800,7 @@
         <v>18</v>
       </c>
       <c r="BC29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>4.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -5852,7 +5919,7 @@
         <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
@@ -5870,22 +5937,22 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT30" t="n">
         <v>26</v>
@@ -5906,16 +5973,16 @@
         <v>29</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
@@ -6022,22 +6089,22 @@
         <v>2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>12</v>
       </c>
       <c r="AI31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
@@ -6052,34 +6119,34 @@
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR31" t="n">
         <v>14</v>
       </c>
       <c r="AS31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT31" t="n">
         <v>9</v>
       </c>
       <c r="AU31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV31" t="n">
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
@@ -6091,10 +6158,10 @@
         <v>4</v>
       </c>
       <c r="BA31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-9-2007-08</t>
+          <t>2008-01-09</t>
         </is>
       </c>
     </row>
